--- a/configs/SearchByImage.xlsx
+++ b/configs/SearchByImage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -87,13 +87,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>www.baidu.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例执行成功</t>
-  </si>
-  <si>
     <t>visit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -127,13 +120,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>测试步骤执行成功</t>
-  </si>
-  <si>
-    <t>open_browser</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>assert</t>
     </r>
@@ -149,13 +135,44 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.baidu.com</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BA</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例执行成功</t>
+  </si>
+  <si>
+    <t>测试步骤执行成功</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +231,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,11 +260,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -283,10 +303,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -308,30 +329,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -671,8 +695,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>13</v>
+      <c r="D2" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -683,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -716,96 +740,88 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s" s="19">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="E3" t="s" s="20">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>15010463120</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="21">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>19</v>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s" s="22">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s" s="23">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
+      <c r="E7" t="s" s="24">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>